--- a/test.xlsx
+++ b/test.xlsx
@@ -443,7 +443,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="tab" sheetId="1" r:id="rId1"/>
+    <sheet name="Tab" sheetId="1" r:id="rId1"/>
+    <sheet name="Calc" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Start Date</t>
   </si>
@@ -32,6 +33,15 @@
   </si>
   <si>
     <t>Total Days</t>
+  </si>
+  <si>
+    <t>Office Hours 1</t>
+  </si>
+  <si>
+    <t>Lunch Hours</t>
+  </si>
+  <si>
+    <t>Office Hours 2</t>
   </si>
 </sst>
 </file>
@@ -449,4 +459,42 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Start Date</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Total Days</t>
   </si>
   <si>
+    <t>Total Hours</t>
+  </si>
+  <si>
     <t>Datetime</t>
   </si>
   <si>
-    <t>['2022-07-03 00:00:00']</t>
-  </si>
-  <si>
-    <t>['2022-07-10 00:00:00']</t>
-  </si>
-  <si>
-    <t>['2022-07-17 00:00:00']</t>
+    <t>Working Hours</t>
+  </si>
+  <si>
+    <t>['2022-07-03 09:00:00']</t>
+  </si>
+  <si>
+    <t>['2022-07-10 09:00:00']</t>
+  </si>
+  <si>
+    <t>['2022-07-17 09:00:00']</t>
   </si>
 </sst>
 </file>
@@ -401,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,13 +421,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -432,13 +441,16 @@
         <v>2022</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -449,13 +461,16 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -466,20 +481,29 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="B7">
         <v>31</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Start Date</t>
   </si>
@@ -37,19 +37,31 @@
     <t>Total Hours</t>
   </si>
   <si>
-    <t>Datetime</t>
-  </si>
-  <si>
-    <t>Working Hours</t>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Office Start</t>
+  </si>
+  <si>
+    <t>Lunch Start</t>
+  </si>
+  <si>
+    <t>Lunch End</t>
+  </si>
+  <si>
+    <t>Office End</t>
   </si>
   <si>
     <t>['2022-07-03 09:00:00']</t>
   </si>
   <si>
-    <t>['2022-07-10 09:00:00']</t>
-  </si>
-  <si>
-    <t>['2022-07-17 09:00:00']</t>
+    <t>['2022-07-03 13:00:00']</t>
+  </si>
+  <si>
+    <t>['2022-07-03 14:00:00']</t>
+  </si>
+  <si>
+    <t>['2022-07-03 18:00:00']</t>
   </si>
 </sst>
 </file>
@@ -407,30 +419,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -440,17 +446,14 @@
       <c r="C2">
         <v>2022</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -460,17 +463,14 @@
       <c r="C3">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -480,17 +480,22 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -498,9 +503,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="B7">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <v>0</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,32 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Month</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>Day</t>
   </si>
   <si>
-    <t>Total Days</t>
-  </si>
-  <si>
-    <t>Total Hours</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Office Start</t>
   </si>
   <si>
@@ -52,16 +34,7 @@
     <t>Office End</t>
   </si>
   <si>
-    <t>2022-07-03 09:00:00</t>
-  </si>
-  <si>
-    <t>2022-07-03 13:00:00</t>
-  </si>
-  <si>
-    <t>2022-07-03 14:00:00</t>
-  </si>
-  <si>
-    <t>2022-07-03 18:00:00</t>
+    <t>Working Hours</t>
   </si>
 </sst>
 </file>
@@ -419,96 +392,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="F1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="6:12">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>2022</v>
-      </c>
-      <c r="C2">
-        <v>2022</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
+  <si>
+    <t>Weeks</t>
+  </si>
+  <si>
+    <t>Date Range</t>
+  </si>
+  <si>
+    <t>Total Working Hours</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
@@ -37,18 +46,6 @@
     <t>Working Hours</t>
   </si>
   <si>
-    <t>2022-07-01</t>
-  </si>
-  <si>
-    <t>2022-07-05</t>
-  </si>
-  <si>
-    <t>2022-07-08</t>
-  </si>
-  <si>
-    <t>2022-07-12</t>
-  </si>
-  <si>
     <t>2022-07-15</t>
   </si>
   <si>
@@ -59,6 +56,30 @@
   </si>
   <si>
     <t>2022-07-26</t>
+  </si>
+  <si>
+    <t>2022-07-29</t>
+  </si>
+  <si>
+    <t>2022-08-02</t>
+  </si>
+  <si>
+    <t>2022-08-05</t>
+  </si>
+  <si>
+    <t>2022-08-09</t>
+  </si>
+  <si>
+    <t>2022-08-12</t>
+  </si>
+  <si>
+    <t>2022-08-16</t>
+  </si>
+  <si>
+    <t>2022-08-19</t>
+  </si>
+  <si>
+    <t>2022-08-23</t>
   </si>
   <si>
     <t>Friday</t>
@@ -437,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,45 +466,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -491,22 +512,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -514,22 +535,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -537,22 +558,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G5">
         <v>7</v>
@@ -560,22 +581,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -583,22 +604,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -606,22 +627,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>8</v>
@@ -629,25 +650,139 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>47</v>
+      </c>
+      <c r="C16">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
